--- a/attendance_summary_by_date.xlsx
+++ b/attendance_summary_by_date.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,287 +468,419 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alisha</t>
+          <t>Mssajida</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maleeha</t>
+          <t>Lubnanadeem</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Faisal</t>
+          <t>Saleem</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Izhar</t>
+          <t>Saira</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Atiq</t>
+          <t>Maleehausama</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lubna nadeem</t>
+          <t>Alisha</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lubna Fiaz</t>
+          <t>Faisalnazir</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sajida</t>
+          <t>Izhar</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saira</t>
+          <t>Sabir</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saleem</t>
+          <t>Hina</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jamsheed</t>
+          <t>Jamshed</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sabir</t>
+          <t>Lubnaf</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hina</t>
+          <t>Kashif</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Iram</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Amra</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rabiya</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ruby</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Iqra</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MsSaba</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/attendance_summary_by_date.xlsx
+++ b/attendance_summary_by_date.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
